--- a/src/test/resources/testdata/HrmsTestData.xlsx
+++ b/src/test/resources/testdata/HrmsTestData.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26520" windowHeight="8620"/>
+    <workbookView windowWidth="26520" windowHeight="8620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddEmployee" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Employee" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>FirstName</t>
   </si>
@@ -59,37 +59,19 @@
     <t>brianbgulbert</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Stae</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>MiddleName</t>
   </si>
   <si>
     <t>John</t>
   </si>
   <si>
-    <t>smith</t>
-  </si>
-  <si>
-    <t>chantilly</t>
-  </si>
-  <si>
-    <t>va</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Smith</t>
   </si>
   <si>
     <t>Jane</t>
-  </si>
-  <si>
-    <t>newyork</t>
-  </si>
-  <si>
-    <t>ny</t>
   </si>
 </sst>
 </file>
@@ -97,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,9 +101,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,61 +116,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +139,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -210,22 +169,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,9 +193,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,187 +246,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,35 +440,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +460,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,30 +505,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -555,150 +513,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1033,7 +1015,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1114,63 +1096,45 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>20151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>1234</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/HrmsTestData.xlsx
+++ b/src/test/resources/testdata/HrmsTestData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26520" windowHeight="8620" activeTab="1"/>
+    <workbookView windowWidth="26520" windowHeight="8620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AddEmployee" sheetId="1" r:id="rId1"/>
     <sheet name="Employee" sheetId="2" r:id="rId2"/>
+    <sheet name="SauceDemo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>FirstName</t>
   </si>
@@ -72,6 +73,27 @@
   </si>
   <si>
     <t>Jane</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>standard_user</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>problem_user</t>
+  </si>
+  <si>
+    <t>performance_glitch_user</t>
   </si>
 </sst>
 </file>
@@ -79,12 +101,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +115,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -102,7 +131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,10 +153,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,6 +178,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -162,6 +199,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -171,6 +216,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -179,59 +260,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,43 +275,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,61 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,73 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +474,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,9 +504,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +528,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -499,26 +548,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,156 +571,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,7 +1079,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -1061,7 +1093,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
@@ -1075,7 +1107,7 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
@@ -1098,7 +1130,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1141,4 +1173,68 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>